--- a/test.xlsx
+++ b/test.xlsx
@@ -625,7 +625,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>HB600.360060.002~а2 Спецификация общесудовая_16.03.17.pdf</t>
         </is>
@@ -1052,7 +1052,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+      <c r="A90" t="inlineStr">
         <is>
           <t>HB600.360060.136_Теоретический чертеж рулевой рубки.dwg</t>
         </is>
@@ -1402,7 +1402,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="inlineStr">
+      <c r="A140" t="inlineStr">
         <is>
           <t>HB600.360061.115_а5_Схема_испытаний_на_непроницаемость.pdf</t>
         </is>
@@ -1528,7 +1528,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="inlineStr">
+      <c r="A158" t="inlineStr">
         <is>
           <t>HB600.360061.140_б2.Чертежи проходов трубопроводов.20.08.19.frw</t>
         </is>
@@ -1549,7 +1549,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="inlineStr">
+      <c r="A161" t="inlineStr">
         <is>
           <t>HB600.360061.140_лит. б2_ Узлы проходов трубопроводов_201-202.frw</t>
         </is>
@@ -1563,7 +1563,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="inlineStr">
+      <c r="A163" t="inlineStr">
         <is>
           <t>HB600.360061.140_Чертежи проходов трубопроводов~a1_2016.04.27.dwg</t>
         </is>
@@ -1591,7 +1591,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="inlineStr">
+      <c r="A167" t="inlineStr">
         <is>
           <t>HB600.360061.140~a4.bak</t>
         </is>
@@ -1612,7 +1612,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="inlineStr">
+      <c r="A170" t="inlineStr">
         <is>
           <t>HB600.360061.140~a4.dwg.original</t>
         </is>
@@ -1626,14 +1626,14 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="inlineStr">
+      <c r="A172" t="inlineStr">
         <is>
           <t>HB600.360061.140~б1  Узлы проходов трубопроводов.dwg</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="inlineStr">
+      <c r="A173" t="inlineStr">
         <is>
           <t>HB600.360061.140~б1  Узлы проходов трубопроводов.frw</t>
         </is>
@@ -1647,14 +1647,14 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="inlineStr">
+      <c r="A175" t="inlineStr">
         <is>
           <t>HB600.360061.140~б2  Узлы проходов трубопроводов.dwg</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="inlineStr">
+      <c r="A176" t="inlineStr">
         <is>
           <t>HB600.360061.140~б2  Узлы проходов трубопроводов.frw</t>
         </is>
@@ -1759,7 +1759,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="inlineStr">
+      <c r="A191" t="inlineStr">
         <is>
           <t>HB600.360061.501_а3-Фундаменты дизель-генераторов.pdf</t>
         </is>
@@ -1857,7 +1857,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="inlineStr">
+      <c r="A205" t="inlineStr">
         <is>
           <t>HB600.360061.507 Шахта лага конструктивный чертеж.pdf</t>
         </is>
@@ -1934,7 +1934,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="inlineStr">
+      <c r="A216" t="inlineStr">
         <is>
           <t>HB600.360062.019РР_Расчет элементов якорного, швартовного и буксирного устройств.pdf</t>
         </is>
@@ -2137,7 +2137,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="inlineStr">
+      <c r="A245" t="inlineStr">
         <is>
           <t>HB600.360062.042_б2_Грот-мачта.02.08.19.pdf</t>
         </is>
@@ -2466,7 +2466,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="inlineStr">
+      <c r="A292" t="inlineStr">
         <is>
           <t>HB600.360064.002 - Расположение механизмов и оборудования в машинных помещения.pdf</t>
         </is>
@@ -2620,7 +2620,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="inlineStr">
+      <c r="A314" t="inlineStr">
         <is>
           <t>HB600.360065.029 _ Д _Система_балластно-осушительная_ 201.pdf</t>
         </is>
@@ -2662,7 +2662,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="inlineStr">
+      <c r="A320" t="inlineStr">
         <is>
           <t>HB600.360065.029.02_ в.Система_балластно-осушительная_с 202.pdf</t>
         </is>
@@ -3978,7 +3978,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="1" t="inlineStr">
+      <c r="A508" t="inlineStr">
         <is>
           <t>HB600.360285.117_Схема спуска шлюпки и плотов при крене и дифференте.pdf</t>
         </is>
@@ -4720,7 +4720,7 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="1" t="inlineStr">
+      <c r="A614" t="inlineStr">
         <is>
           <t>HB600.360285.212 Буксирное устройство. Методика заводских ходовых испытаний.pdf</t>
         </is>
@@ -4825,7 +4825,7 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="1" t="inlineStr">
+      <c r="A629" t="inlineStr">
         <is>
           <t>HB600.360285.214ПМ Переливное устройство  Методика заводских ходовых испытаний.pdf</t>
         </is>
@@ -4867,7 +4867,7 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="1" t="inlineStr">
+      <c r="A635" t="inlineStr">
         <is>
           <t>HB600.360285.215 Спасательное устройство. Методика заводских ходовых испытаний.pdf</t>
         </is>
@@ -5028,7 +5028,7 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="1" t="inlineStr">
+      <c r="A658" t="inlineStr">
         <is>
           <t>HB600.360285.229ПМ Навигационное оборудование ЗХИ.pdf</t>
         </is>
@@ -5063,7 +5063,7 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="1" t="inlineStr">
+      <c r="A663" t="inlineStr">
         <is>
           <t>HB600.360285.230ПМ Сигнально-отличительные фонари_ЗХИ.pdf</t>
         </is>
@@ -5098,7 +5098,7 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="1" t="inlineStr">
+      <c r="A668" t="inlineStr">
         <is>
           <t>HB600.360285.231ПМ Прожекторы_ЗХИ.pdf</t>
         </is>
@@ -5595,7 +5595,7 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="1" t="inlineStr">
+      <c r="A739" t="inlineStr">
         <is>
           <t>HB600.362136.300_Установка настила на 1 ярусе 06_09_17.rtf</t>
         </is>
@@ -5875,7 +5875,7 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="1" t="inlineStr">
+      <c r="A779" t="inlineStr">
         <is>
           <t>HB600.362211.104 Крышка якорной трубы.frw</t>
         </is>
@@ -5938,7 +5938,7 @@
       </c>
     </row>
     <row r="788">
-      <c r="A788" s="1" t="inlineStr">
+      <c r="A788" t="inlineStr">
         <is>
           <t>HB600.362211.310 Установка кормового якорно-швартовного шпиля.rtf</t>
         </is>
@@ -5952,7 +5952,7 @@
       </c>
     </row>
     <row r="790">
-      <c r="A790" s="1" t="inlineStr">
+      <c r="A790" t="inlineStr">
         <is>
           <t>HB600.362211.320 Установка пульта управления кормового якорно-швартовного шпиля.rtf</t>
         </is>
@@ -6050,7 +6050,7 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" s="1" t="inlineStr">
+      <c r="A804" t="inlineStr">
         <is>
           <t>HB600.362212.320 Установка пульта управления швартовного шпиля.rtf</t>
         </is>
@@ -6190,7 +6190,7 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" s="1" t="inlineStr">
+      <c r="A824" t="inlineStr">
         <is>
           <t>HB600.362214.330 Установка ниш бортовых огней.rtf</t>
         </is>
@@ -6526,7 +6526,7 @@
       </c>
     </row>
     <row r="872">
-      <c r="A872" s="1" t="inlineStr">
+      <c r="A872" t="inlineStr">
         <is>
           <t>HB600.362256.210МЧ_Установка и крепление дверец грунтового трюма.dwl2</t>
         </is>
@@ -6554,7 +6554,7 @@
       </c>
     </row>
     <row r="876">
-      <c r="A876" s="1" t="inlineStr">
+      <c r="A876" t="inlineStr">
         <is>
           <t>HB600.362282.300.rtf</t>
         </is>
@@ -6568,7 +6568,7 @@
       </c>
     </row>
     <row r="878">
-      <c r="A878" s="1" t="inlineStr">
+      <c r="A878" t="inlineStr">
         <is>
           <t>HB600.362282.310.rtf</t>
         </is>
@@ -6610,7 +6610,7 @@
       </c>
     </row>
     <row r="884">
-      <c r="A884" s="1" t="inlineStr">
+      <c r="A884" t="inlineStr">
         <is>
           <t>HB600.362283.120.rtf</t>
         </is>
@@ -6631,7 +6631,7 @@
       </c>
     </row>
     <row r="887">
-      <c r="A887" s="1" t="inlineStr">
+      <c r="A887" t="inlineStr">
         <is>
           <t>HB600.362283.310.rtf</t>
         </is>
@@ -6988,7 +6988,7 @@
       </c>
     </row>
     <row r="938">
-      <c r="A938" s="1" t="inlineStr">
+      <c r="A938" t="inlineStr">
         <is>
           <t>HB600.362286.222_Планка стопорная.dwl2</t>
         </is>
@@ -7282,7 +7282,7 @@
       </c>
     </row>
     <row r="980">
-      <c r="A980" s="1" t="inlineStr">
+      <c r="A980" t="inlineStr">
         <is>
           <t>HB600.362371.001 Установка марок углубления грузовой марки и предупреждающих знаков на корпусе судна.bak</t>
         </is>
@@ -7786,7 +7786,7 @@
       </c>
     </row>
     <row r="1052">
-      <c r="A1052" s="1" t="inlineStr">
+      <c r="A1052" t="inlineStr">
         <is>
           <t>HB900.360062.051 Наклонные и вертикальные трапы и скоб-трапы.pdf</t>
         </is>
@@ -7828,7 +7828,7 @@
       </c>
     </row>
     <row r="1058">
-      <c r="A1058" s="1" t="inlineStr">
+      <c r="A1058" t="inlineStr">
         <is>
           <t>HВ600-152-056 Fire Plan 201.pdf</t>
         </is>
@@ -7856,7 +7856,7 @@
       </c>
     </row>
     <row r="1062">
-      <c r="A1062" s="1" t="inlineStr">
+      <c r="A1062" t="inlineStr">
         <is>
           <t>HВ600.360050.005_Инструкционный чертеж_2015_11_13.pdf</t>
         </is>
@@ -8185,14 +8185,14 @@
       </c>
     </row>
     <row r="1109">
-      <c r="A1109" s="1" t="inlineStr">
+      <c r="A1109" t="inlineStr">
         <is>
           <t>HВ900.360062.032_Привод лядового устройства.dwg</t>
         </is>
       </c>
     </row>
     <row r="1110">
-      <c r="A1110" s="1" t="inlineStr">
+      <c r="A1110" t="inlineStr">
         <is>
           <t>HВ900.360062.032_Привод лядового устройства.pdf</t>
         </is>
@@ -8458,7 +8458,7 @@
       </c>
     </row>
     <row r="1148">
-      <c r="A1148" s="1" t="inlineStr">
+      <c r="A1148" t="inlineStr">
         <is>
           <t>Карта отступления_HB600.360060.021 б1_ведомость аварийно-спасательного и противопожарного 07.05.18.pdf</t>
         </is>
@@ -8479,7 +8479,7 @@
       </c>
     </row>
     <row r="1151">
-      <c r="A1151" s="1" t="inlineStr">
+      <c r="A1151" t="inlineStr">
         <is>
           <t>Корректировка альбома узлов прохода трубопроводов пр. HB600.frw</t>
         </is>
@@ -8493,7 +8493,7 @@
       </c>
     </row>
     <row r="1153">
-      <c r="A1153" s="1" t="inlineStr">
+      <c r="A1153" t="inlineStr">
         <is>
           <t>Корректировка альбома узлов прохода трубопроводов пр. НВ600.frw</t>
         </is>
@@ -8927,7 +8927,7 @@
       </c>
     </row>
     <row r="1215">
-      <c r="A1215" s="1" t="inlineStr">
+      <c r="A1215" t="inlineStr">
         <is>
           <t>НВ600.360061.140~a3_Чертежи проходов трубопроводов_2017.07.21_из почты.frw</t>
         </is>
@@ -10040,7 +10040,7 @@
       </c>
     </row>
     <row r="1374">
-      <c r="A1374" s="1" t="inlineStr">
+      <c r="A1374" t="inlineStr">
         <is>
           <t>НВ600.362239.220СБ Труба переливная.frw</t>
         </is>
@@ -10096,7 +10096,7 @@
       </c>
     </row>
     <row r="1382">
-      <c r="A1382" s="1" t="inlineStr">
+      <c r="A1382" t="inlineStr">
         <is>
           <t>Перечень документации на установленное оборудование стр 201.pdf</t>
         </is>
